--- a/Xen Jakaria/income Tax/calculation_2021-2022.xlsx
+++ b/Xen Jakaria/income Tax/calculation_2021-2022.xlsx
@@ -285,42 +285,6 @@
     </r>
   </si>
   <si>
-    <t>RyjvB/20</t>
-  </si>
-  <si>
-    <t>AvMó/20</t>
-  </si>
-  <si>
-    <t>‡m‡Þš^i/20</t>
-  </si>
-  <si>
-    <t>A‡±vei/20</t>
-  </si>
-  <si>
-    <t>b‡fš^i/20</t>
-  </si>
-  <si>
-    <t>wW‡mš^i/20</t>
-  </si>
-  <si>
-    <t>Rvbyqvix/21</t>
-  </si>
-  <si>
-    <t>‡deªqvix/21</t>
-  </si>
-  <si>
-    <t>gvP©/21</t>
-  </si>
-  <si>
-    <t>GwcÖj/21</t>
-  </si>
-  <si>
-    <t>‡g/21</t>
-  </si>
-  <si>
-    <t>Ryb/21</t>
-  </si>
-  <si>
     <t>Ab¨vb¨</t>
   </si>
   <si>
@@ -460,6 +424,42 @@
   </si>
   <si>
     <t>Ki ermi    : 2022-2023</t>
+  </si>
+  <si>
+    <t>RyjvB/21</t>
+  </si>
+  <si>
+    <t>AvMó/21</t>
+  </si>
+  <si>
+    <t>‡m‡Þš^i/21</t>
+  </si>
+  <si>
+    <t>A‡±vei/21</t>
+  </si>
+  <si>
+    <t>b‡fš^i/21</t>
+  </si>
+  <si>
+    <t>wW‡mš^i/21</t>
+  </si>
+  <si>
+    <t>Rvbyqvix/22</t>
+  </si>
+  <si>
+    <t>‡deªqvix/22</t>
+  </si>
+  <si>
+    <t>gvP©/22</t>
+  </si>
+  <si>
+    <t>GwcÖj/22</t>
+  </si>
+  <si>
+    <t>‡g/22</t>
+  </si>
+  <si>
+    <t>Ryb/22</t>
   </si>
 </sst>
 </file>
@@ -1020,46 +1020,48 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1070,6 +1072,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,44 +1084,39 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1486,33 +1486,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.2">
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="M1" s="87" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="M1" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
     </row>
     <row r="3" spans="1:22" ht="18.600000000000001">
-      <c r="A3" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1528,20 +1528,20 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="G4" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1553,20 +1553,20 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="18.600000000000001">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1601,43 +1601,43 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="99" t="s">
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="88" t="s">
         <v>58</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="114" t="s">
+      <c r="A8" s="122"/>
+      <c r="B8" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="99" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -1655,7 +1655,7 @@
       <c r="J8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="88" t="s">
         <v>5</v>
       </c>
       <c r="L8" s="61" t="s">
@@ -1667,21 +1667,21 @@
       <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="115" t="s">
+      <c r="O8" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="114" t="s">
+      <c r="Q8" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="115"/>
+      <c r="R8" s="89"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="33" customHeight="1">
-      <c r="A9" s="98"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="62" t="s">
         <v>61</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="D9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="100"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="J9" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="100"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62" t="s">
         <v>8</v>
@@ -1715,10 +1715,10 @@
       <c r="N9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="116"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="90"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="11" spans="1:22" ht="19.5" customHeight="1">
       <c r="A11" s="82" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B11" s="42">
         <v>56030</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="12" spans="1:22" ht="16.5" customHeight="1">
       <c r="A12" s="82" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B12" s="42">
         <v>56030</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1">
       <c r="A13" s="82" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B13" s="42">
         <v>56030</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="14" spans="1:22" ht="19.5" customHeight="1">
       <c r="A14" s="82" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B14" s="42">
         <v>56030</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="15" spans="1:22" ht="17.25" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B15" s="42">
         <v>56030</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1">
       <c r="A16" s="82" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B16" s="42">
         <v>56030</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="17" spans="1:39" ht="19.5" customHeight="1">
       <c r="A17" s="82" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B17" s="42">
         <v>56030</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="18" spans="1:39" ht="19.5" customHeight="1">
       <c r="A18" s="82" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B18" s="42">
         <v>56030</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="19" spans="1:39" ht="17.25" customHeight="1">
       <c r="A19" s="82" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B19" s="42">
         <v>56030</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:39" ht="16.5" customHeight="1">
       <c r="A20" s="82" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B20" s="42">
         <v>56030</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="21" spans="1:39" ht="15.75" customHeight="1">
       <c r="A21" s="82" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B21" s="42">
         <v>56030</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="22" spans="1:39" ht="16.5" customHeight="1">
       <c r="A22" s="82" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B22" s="42">
         <v>56030</v>
@@ -2667,13 +2667,13 @@
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
-      <c r="L25" s="123" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
+      <c r="L25" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
       <c r="Q25" s="66"/>
       <c r="R25" s="66"/>
       <c r="S25" s="4"/>
@@ -2800,11 +2800,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="103" t="s">
+      <c r="M31" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="103"/>
-      <c r="O31" s="88"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="92"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
@@ -2865,14 +2865,14 @@
       <c r="A34" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="93"/>
+      <c r="G34" s="94"/>
       <c r="I34" s="20">
         <f>E23</f>
         <v>381720</v>
@@ -2892,10 +2892,10 @@
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="16.2">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="93"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="20">
         <f>L23</f>
         <v>168084</v>
@@ -2904,10 +2904,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="93"/>
+      <c r="G35" s="94"/>
       <c r="I35" s="20">
         <f>H23</f>
         <v>18000</v>
@@ -2927,10 +2927,10 @@
       <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" ht="16.2">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="93"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="20">
         <f>N23</f>
         <v>600</v>
@@ -2942,7 +2942,7 @@
       <c r="F36" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="93"/>
+      <c r="G36" s="94"/>
       <c r="I36" s="20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2962,10 +2962,10 @@
       <c r="T36" s="8"/>
     </row>
     <row r="37" spans="1:20" ht="16.2">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="93"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="20">
         <f>M23</f>
         <v>480</v>
@@ -2974,10 +2974,10 @@
         <v>34</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="92" t="s">
+      <c r="F37" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="93"/>
+      <c r="G37" s="94"/>
       <c r="I37" s="20">
         <f>F23</f>
         <v>12000</v>
@@ -2997,10 +2997,10 @@
       <c r="T37" s="8"/>
     </row>
     <row r="38" spans="1:20" ht="16.2">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="93"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
         <v>34</v>
@@ -3028,10 +3028,10 @@
       <c r="T38" s="8"/>
     </row>
     <row r="39" spans="1:20" ht="16.2">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="93"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="28" t="s">
         <v>13</v>
       </c>
@@ -3062,10 +3062,10 @@
       <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" ht="16.2">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="93"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="60" t="s">
         <v>13</v>
       </c>
@@ -3103,10 +3103,10 @@
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="110" t="s">
+      <c r="H41" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="111"/>
+      <c r="I41" s="112"/>
       <c r="J41" s="31" t="e">
         <f>I39</f>
         <v>#REF!</v>
@@ -3125,10 +3125,10 @@
       <c r="T41" s="8"/>
     </row>
     <row r="42" spans="1:20" ht="16.2">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="102"/>
+      <c r="B42" s="114"/>
       <c r="C42" s="20">
         <f>SUM(C35:C41)</f>
         <v>169164</v>
@@ -3139,10 +3139,10 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="112" t="s">
+      <c r="H42" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="102"/>
+      <c r="I42" s="114"/>
       <c r="J42" s="32" t="e">
         <f>I32-J41</f>
         <v>#REF!</v>
@@ -3218,10 +3218,10 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="110" t="s">
+      <c r="H45" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="111"/>
+      <c r="I45" s="112"/>
       <c r="J45" s="31">
         <v>300000</v>
       </c>
@@ -3248,10 +3248,10 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="101" t="s">
+      <c r="H46" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="102"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="34" t="e">
         <f>J44-J45</f>
         <v>#REF!</v>
@@ -3276,12 +3276,12 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
       <c r="I47" s="50"/>
       <c r="J47" s="59">
         <v>5000</v>
@@ -3367,10 +3367,10 @@
       <c r="E50" s="49"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="92" t="s">
+      <c r="H50" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="93"/>
+      <c r="I50" s="94"/>
       <c r="J50" s="59" t="e">
         <f>SUM(J47:J49)</f>
         <v>#REF!</v>
@@ -3455,10 +3455,10 @@
       <c r="A53" s="33"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="91"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="37">
         <f>C42</f>
         <v>169164</v>
@@ -3520,8 +3520,8 @@
       <c r="G55" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
       <c r="J55" s="52" t="e">
         <f>J50-J54</f>
         <v>#REF!</v>
@@ -3547,12 +3547,12 @@
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="109" t="s">
+      <c r="F56" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
       <c r="J56" s="40">
         <f>P23</f>
         <v>18000</v>
@@ -3908,32 +3908,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E47:H47"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D53:E53"/>
@@ -3950,6 +3924,32 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -3982,7 +3982,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="129" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C1" s="130"/>
       <c r="D1" s="130"/>
@@ -3994,35 +3994,35 @@
     </row>
     <row r="4" spans="1:11" ht="26.4">
       <c r="B4" s="133" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D4" s="70">
         <v>200000</v>
       </c>
       <c r="F4" s="132" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="B5" s="133"/>
       <c r="C5" s="70" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D5" s="70">
         <v>100000</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G5" s="70">
         <v>609068</v>
       </c>
       <c r="I5" s="128" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J5" s="128"/>
       <c r="K5" s="128"/>
@@ -4030,20 +4030,20 @@
     <row r="6" spans="1:11">
       <c r="B6" s="133"/>
       <c r="C6" s="75" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D6" s="70">
         <f>G8</f>
         <v>838405</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G6" s="70">
         <v>141990</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J6" s="85">
         <v>300000</v>
@@ -4056,20 +4056,20 @@
     <row r="7" spans="1:11">
       <c r="B7" s="133"/>
       <c r="C7" s="70" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D7" s="78">
         <f>SUM(D4:D6)</f>
         <v>1138405</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G7" s="70">
         <v>87347</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J7" s="70">
         <v>12333</v>
@@ -4078,14 +4078,14 @@
     </row>
     <row r="8" spans="1:11">
       <c r="F8" s="71" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G8" s="72">
         <f>SUM(G5:G7)</f>
         <v>838405</v>
       </c>
       <c r="I8" s="70" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J8" s="70">
         <v>144000</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="I9" s="70" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J9" s="70">
         <v>21000</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="I10" s="70" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J10" s="70">
         <v>7800</v>
@@ -4112,13 +4112,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="73" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B11" s="78">
         <v>105000</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J11" s="70">
         <v>8000</v>
@@ -4127,13 +4127,13 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="73" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B12" s="78">
         <v>105000</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J12" s="70">
         <v>15000</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="13" spans="1:11" ht="26.4">
       <c r="E13" s="73" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I13" s="70" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J13" s="70">
         <v>20000</v>
@@ -4154,17 +4154,17 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="73" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F14" s="70" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G14" s="70">
         <f>666620+2222</f>
         <v>668842</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J14" s="84">
         <f>J15-K6</f>
@@ -4173,19 +4173,19 @@
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1">
       <c r="B15" s="70" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C15" s="70">
         <v>215000</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G15" s="70">
         <v>371616</v>
       </c>
       <c r="I15" s="70" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J15" s="70">
         <f>G24</f>
@@ -4194,13 +4194,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="70" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C16" s="70">
         <v>250193</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G16" s="70">
         <f>G7</f>
@@ -4209,13 +4209,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="70" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C17" s="70">
         <v>0</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G17" s="79">
         <f>SUM(G14:G16)</f>
@@ -4231,19 +4231,19 @@
     </row>
     <row r="21" spans="1:7" ht="26.4">
       <c r="A21" s="79" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="70" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C22" s="70">
         <f>D7</f>
         <v>1138405</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G22" s="70">
         <f>G17</f>
@@ -4252,14 +4252,14 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1">
       <c r="B23" s="70" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C23" s="70">
         <f>B11</f>
         <v>105000</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G23" s="70">
         <f>D30</f>
@@ -4268,14 +4268,14 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="70" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C24" s="70">
         <f>B12</f>
         <v>105000</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G24" s="81">
         <f>G22-G23</f>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="70" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25" s="70">
         <f>C18</f>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="76" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C26" s="77">
         <f>SUM(C22:C25)</f>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1">
       <c r="A28" s="133" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="29" spans="1:7" ht="17.25" customHeight="1">
       <c r="A29" s="133" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B29" s="133"/>
       <c r="C29" s="133"/>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="125" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B30" s="125"/>
       <c r="C30" s="125"/>

--- a/Xen Jakaria/income Tax/calculation_2021-2022.xlsx
+++ b/Xen Jakaria/income Tax/calculation_2021-2022.xlsx
@@ -1020,48 +1020,46 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1072,9 +1070,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,39 +1079,44 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1486,29 +1486,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.2">
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="M1" s="117" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
     </row>
     <row r="3" spans="1:22" ht="18.600000000000001">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
@@ -1528,20 +1528,20 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1553,20 +1553,20 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="18.600000000000001">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1601,43 +1601,43 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="100" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="88" t="s">
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="99" t="s">
         <v>58</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="99" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -1655,7 +1655,7 @@
       <c r="J8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="99" t="s">
         <v>5</v>
       </c>
       <c r="L8" s="61" t="s">
@@ -1667,21 +1667,21 @@
       <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="88" t="s">
+      <c r="O8" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="89" t="s">
+      <c r="P8" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="87" t="s">
+      <c r="Q8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="89"/>
+      <c r="R8" s="115"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="33" customHeight="1">
-      <c r="A9" s="123"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="62" t="s">
         <v>61</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="D9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="J9" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="99"/>
+      <c r="K9" s="100"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62" t="s">
         <v>8</v>
@@ -1715,10 +1715,10 @@
       <c r="N9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="90"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="116"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
@@ -2667,13 +2667,13 @@
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
-      <c r="L25" s="102" t="s">
+      <c r="L25" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
       <c r="Q25" s="66"/>
       <c r="R25" s="66"/>
       <c r="S25" s="4"/>
@@ -2800,11 +2800,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="124" t="s">
+      <c r="M31" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="124"/>
-      <c r="O31" s="92"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="88"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
@@ -2865,14 +2865,14 @@
       <c r="A34" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="94"/>
+      <c r="G34" s="93"/>
       <c r="I34" s="20">
         <f>E23</f>
         <v>381720</v>
@@ -2892,10 +2892,10 @@
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="16.2">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="94"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="20">
         <f>L23</f>
         <v>168084</v>
@@ -2904,10 +2904,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="94"/>
+      <c r="G35" s="93"/>
       <c r="I35" s="20">
         <f>H23</f>
         <v>18000</v>
@@ -2927,10 +2927,10 @@
       <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" ht="16.2">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="94"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="20">
         <f>N23</f>
         <v>600</v>
@@ -2942,7 +2942,7 @@
       <c r="F36" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="94"/>
+      <c r="G36" s="93"/>
       <c r="I36" s="20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2962,10 +2962,10 @@
       <c r="T36" s="8"/>
     </row>
     <row r="37" spans="1:20" ht="16.2">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="94"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="20">
         <f>M23</f>
         <v>480</v>
@@ -2974,10 +2974,10 @@
         <v>34</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="94"/>
+      <c r="G37" s="93"/>
       <c r="I37" s="20">
         <f>F23</f>
         <v>12000</v>
@@ -2997,10 +2997,10 @@
       <c r="T37" s="8"/>
     </row>
     <row r="38" spans="1:20" ht="16.2">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="94"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
         <v>34</v>
@@ -3028,10 +3028,10 @@
       <c r="T38" s="8"/>
     </row>
     <row r="39" spans="1:20" ht="16.2">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="94"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="28" t="s">
         <v>13</v>
       </c>
@@ -3062,10 +3062,10 @@
       <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" ht="16.2">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="94"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="60" t="s">
         <v>13</v>
       </c>
@@ -3103,10 +3103,10 @@
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="111" t="s">
+      <c r="H41" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="112"/>
+      <c r="I41" s="111"/>
       <c r="J41" s="31" t="e">
         <f>I39</f>
         <v>#REF!</v>
@@ -3125,10 +3125,10 @@
       <c r="T41" s="8"/>
     </row>
     <row r="42" spans="1:20" ht="16.2">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="114"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="20">
         <f>SUM(C35:C41)</f>
         <v>169164</v>
@@ -3139,10 +3139,10 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="115" t="s">
+      <c r="H42" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="114"/>
+      <c r="I42" s="102"/>
       <c r="J42" s="32" t="e">
         <f>I32-J41</f>
         <v>#REF!</v>
@@ -3218,10 +3218,10 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="111" t="s">
+      <c r="H45" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="112"/>
+      <c r="I45" s="111"/>
       <c r="J45" s="31">
         <v>300000</v>
       </c>
@@ -3248,10 +3248,10 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="113" t="s">
+      <c r="H46" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="114"/>
+      <c r="I46" s="102"/>
       <c r="J46" s="34" t="e">
         <f>J44-J45</f>
         <v>#REF!</v>
@@ -3276,12 +3276,12 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="116" t="s">
+      <c r="E47" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
       <c r="I47" s="50"/>
       <c r="J47" s="59">
         <v>5000</v>
@@ -3367,10 +3367,10 @@
       <c r="E50" s="49"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="94"/>
+      <c r="I50" s="93"/>
       <c r="J50" s="59" t="e">
         <f>SUM(J47:J49)</f>
         <v>#REF!</v>
@@ -3455,10 +3455,10 @@
       <c r="A53" s="33"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="119" t="s">
+      <c r="D53" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="109"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="37">
         <f>C42</f>
         <v>169164</v>
@@ -3520,8 +3520,8 @@
       <c r="G55" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
       <c r="J55" s="52" t="e">
         <f>J50-J54</f>
         <v>#REF!</v>
@@ -3547,12 +3547,12 @@
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="110" t="s">
+      <c r="F56" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
       <c r="J56" s="40">
         <f>P23</f>
         <v>18000</v>
@@ -3908,6 +3908,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E47:H47"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D53:E53"/>
@@ -3924,32 +3950,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>

--- a/Xen Jakaria/income Tax/calculation_2021-2022.xlsx
+++ b/Xen Jakaria/income Tax/calculation_2021-2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
   <si>
     <t>‡gvU</t>
   </si>
@@ -1020,46 +1020,48 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1070,6 +1072,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,44 +1084,39 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1486,29 +1486,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.2">
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="M1" s="87" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="M1" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
     </row>
     <row r="3" spans="1:22" ht="18.600000000000001">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
@@ -1528,20 +1528,20 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1553,20 +1553,20 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="18.600000000000001">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="94" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1601,43 +1601,43 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="99" t="s">
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="88" t="s">
         <v>58</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="114" t="s">
+      <c r="A8" s="122"/>
+      <c r="B8" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="99" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -1655,7 +1655,7 @@
       <c r="J8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="88" t="s">
         <v>5</v>
       </c>
       <c r="L8" s="61" t="s">
@@ -1667,21 +1667,21 @@
       <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="99" t="s">
+      <c r="O8" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="114" t="s">
+      <c r="Q8" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="115"/>
+      <c r="R8" s="89"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="33" customHeight="1">
-      <c r="A9" s="98"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="62" t="s">
         <v>61</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="D9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="100"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="J9" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="100"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62" t="s">
         <v>8</v>
@@ -1715,10 +1715,10 @@
       <c r="N9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="116"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="90"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
@@ -1807,11 +1807,13 @@
       <c r="H11" s="42">
         <v>1500</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="42">
+        <v>56030</v>
+      </c>
       <c r="J11" s="42"/>
       <c r="K11" s="42">
         <f>SUM(D11:J11)</f>
-        <v>97930</v>
+        <v>153960</v>
       </c>
       <c r="L11" s="43">
         <v>14007</v>
@@ -1834,12 +1836,12 @@
       </c>
       <c r="R11" s="43">
         <f t="shared" ref="R11:R22" si="2">K11-Q11</f>
-        <v>72073</v>
+        <v>128103</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="2">
         <f>I11</f>
-        <v>0</v>
+        <v>56030</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" customHeight="1">
@@ -1869,7 +1871,9 @@
       <c r="H12" s="42">
         <v>1500</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="42"/>
       <c r="K12" s="42">
         <f t="shared" ref="K12:K22" si="5">SUM(D12:J12)</f>
@@ -2082,7 +2086,7 @@
       <c r="T15" s="2"/>
       <c r="V15" s="3">
         <f>K23/12</f>
-        <v>97930</v>
+        <v>112871.33333333333</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1">
@@ -2348,11 +2352,13 @@
       <c r="H20" s="42">
         <v>1500</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="42">
+        <v>67236</v>
+      </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42">
         <f t="shared" si="5"/>
-        <v>97930</v>
+        <v>165166</v>
       </c>
       <c r="L20" s="43">
         <v>14007</v>
@@ -2375,7 +2381,7 @@
       </c>
       <c r="R20" s="43">
         <f t="shared" si="2"/>
-        <v>72073</v>
+        <v>139309</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="2"/>
@@ -2478,11 +2484,13 @@
       <c r="H22" s="42">
         <v>1500</v>
       </c>
-      <c r="I22" s="42"/>
+      <c r="I22" s="42">
+        <v>56030</v>
+      </c>
       <c r="J22" s="42"/>
       <c r="K22" s="42">
         <f t="shared" si="5"/>
-        <v>97930</v>
+        <v>153960</v>
       </c>
       <c r="L22" s="43">
         <v>14007</v>
@@ -2505,7 +2513,7 @@
       </c>
       <c r="R22" s="43">
         <f t="shared" si="2"/>
-        <v>72073</v>
+        <v>128103</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="2"/>
@@ -2559,15 +2567,15 @@
       </c>
       <c r="I23" s="42">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>179296</v>
       </c>
       <c r="J23" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K23" s="42">
-        <f t="shared" si="6"/>
-        <v>1175160</v>
+        <f>SUM(K11:K22)</f>
+        <v>1354456</v>
       </c>
       <c r="L23" s="42">
         <f>SUM(L11:L22)</f>
@@ -2595,11 +2603,11 @@
       </c>
       <c r="R23" s="46">
         <f t="shared" si="6"/>
-        <v>864876</v>
+        <v>1044172</v>
       </c>
       <c r="S23" s="4">
         <f>K23-Q23</f>
-        <v>864876</v>
+        <v>1044172</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>67</v>
@@ -2607,15 +2615,15 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6">
         <f>B23+C23+I23</f>
-        <v>763440</v>
+        <v>942736</v>
       </c>
       <c r="W23" s="6">
         <f>I20</f>
-        <v>0</v>
+        <v>67236</v>
       </c>
       <c r="X23" s="6">
         <f>V23-W23</f>
-        <v>763440</v>
+        <v>875500</v>
       </c>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
@@ -2664,16 +2672,19 @@
       <c r="F25" s="64"/>
       <c r="G25" s="64"/>
       <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="I25" s="64">
+        <f>1.2*56030</f>
+        <v>67236</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
-      <c r="L25" s="123" t="s">
+      <c r="L25" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
       <c r="Q25" s="66"/>
       <c r="R25" s="66"/>
       <c r="S25" s="4"/>
@@ -2800,11 +2811,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="103" t="s">
+      <c r="M31" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="103"/>
-      <c r="O31" s="88"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="92"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
@@ -2822,7 +2833,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="2">
         <f>K23</f>
-        <v>1175160</v>
+        <v>1354456</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>34</v>
@@ -2865,14 +2876,14 @@
       <c r="A34" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="93"/>
+      <c r="G34" s="94"/>
       <c r="I34" s="20">
         <f>E23</f>
         <v>381720</v>
@@ -2892,10 +2903,10 @@
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="16.2">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="93"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="20">
         <f>L23</f>
         <v>168084</v>
@@ -2904,10 +2915,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="93"/>
+      <c r="G35" s="94"/>
       <c r="I35" s="20">
         <f>H23</f>
         <v>18000</v>
@@ -2927,10 +2938,10 @@
       <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" ht="16.2">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="93"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="20">
         <f>N23</f>
         <v>600</v>
@@ -2942,7 +2953,7 @@
       <c r="F36" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="93"/>
+      <c r="G36" s="94"/>
       <c r="I36" s="20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2962,10 +2973,10 @@
       <c r="T36" s="8"/>
     </row>
     <row r="37" spans="1:20" ht="16.2">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="93"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="20">
         <f>M23</f>
         <v>480</v>
@@ -2974,10 +2985,10 @@
         <v>34</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="92" t="s">
+      <c r="F37" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="93"/>
+      <c r="G37" s="94"/>
       <c r="I37" s="20">
         <f>F23</f>
         <v>12000</v>
@@ -2997,10 +3008,10 @@
       <c r="T37" s="8"/>
     </row>
     <row r="38" spans="1:20" ht="16.2">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="93"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
         <v>34</v>
@@ -3028,10 +3039,10 @@
       <c r="T38" s="8"/>
     </row>
     <row r="39" spans="1:20" ht="16.2">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="93"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="28" t="s">
         <v>13</v>
       </c>
@@ -3062,10 +3073,10 @@
       <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" ht="16.2">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="93"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="60" t="s">
         <v>13</v>
       </c>
@@ -3103,10 +3114,10 @@
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="110" t="s">
+      <c r="H41" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="111"/>
+      <c r="I41" s="112"/>
       <c r="J41" s="31" t="e">
         <f>I39</f>
         <v>#REF!</v>
@@ -3125,10 +3136,10 @@
       <c r="T41" s="8"/>
     </row>
     <row r="42" spans="1:20" ht="16.2">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="102"/>
+      <c r="B42" s="114"/>
       <c r="C42" s="20">
         <f>SUM(C35:C41)</f>
         <v>169164</v>
@@ -3139,10 +3150,10 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="112" t="s">
+      <c r="H42" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="102"/>
+      <c r="I42" s="114"/>
       <c r="J42" s="32" t="e">
         <f>I32-J41</f>
         <v>#REF!</v>
@@ -3218,10 +3229,10 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="110" t="s">
+      <c r="H45" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="111"/>
+      <c r="I45" s="112"/>
       <c r="J45" s="31">
         <v>300000</v>
       </c>
@@ -3248,10 +3259,10 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="101" t="s">
+      <c r="H46" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="102"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="34" t="e">
         <f>J44-J45</f>
         <v>#REF!</v>
@@ -3276,12 +3287,12 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
       <c r="I47" s="50"/>
       <c r="J47" s="59">
         <v>5000</v>
@@ -3367,10 +3378,10 @@
       <c r="E50" s="49"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="92" t="s">
+      <c r="H50" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="93"/>
+      <c r="I50" s="94"/>
       <c r="J50" s="59" t="e">
         <f>SUM(J47:J49)</f>
         <v>#REF!</v>
@@ -3455,10 +3466,10 @@
       <c r="A53" s="33"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="91"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="37">
         <f>C42</f>
         <v>169164</v>
@@ -3520,8 +3531,8 @@
       <c r="G55" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
       <c r="J55" s="52" t="e">
         <f>J50-J54</f>
         <v>#REF!</v>
@@ -3547,12 +3558,12 @@
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="109" t="s">
+      <c r="F56" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
       <c r="J56" s="40">
         <f>P23</f>
         <v>18000</v>
@@ -3908,32 +3919,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E47:H47"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D53:E53"/>
@@ -3950,6 +3935,32 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>
